--- a/design/config/UIConfig.xlsx
+++ b/design/config/UIConfig.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SchoolLoad\UnityHub\demo\fm-game-master\design\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SchoolLoad\UnityHub\demo\FrameWork\design\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -84,79 +84,15 @@
     <t>Assets/BundleAssets/UI/TaskUI.prefab</t>
   </si>
   <si>
-    <t>AgentUI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Game/UIs/Views/Agents/dev/AgentUI.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Normal</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CreateLoginUI</t>
+    <t>TestUIView</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Game/UIs/Views/Login/CreateLoginUI.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MainView</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Game/UIs/Views/Main/MainView.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerView</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Game/UIs/Views/Player/PlayerView.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShowPowerPropTipView</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Game/UIs/Views/Tips/PropTips/ShowPowerPropTip.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OtherEquipTipUIView</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Game/UIs/Views/Tips/EquipTips/OtherEquipTip.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PropQuickUseTipUIView</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Game/UIs/Views/Tips/PropTips/PropQuickUseTip.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Game/UIs/Views/Market/MarketView.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MarketUIView</t>
+    <t>Assets/Scripts/HotUpdate/Game/UIs/Views/TestUIView.prefab</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -517,7 +453,7 @@
   <dimension ref="A1:D1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -637,7 +573,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -645,112 +581,56 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3"/>
@@ -6682,6 +6562,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>